--- a/Results Momentum/Custom Stock Momentum 2025_06_05.xlsx
+++ b/Results Momentum/Custom Stock Momentum 2025_06_05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E460"/>
+  <dimension ref="A1:G460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,16 @@
           <t>Three Month Return</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Week-Month</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Month&gt;Week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,6 +496,14 @@
           <t>-14.78%</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -513,6 +531,14 @@
           <t>-4.87%</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.79%</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -540,6 +566,14 @@
           <t>-1.82%</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.16%</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -567,6 +601,14 @@
           <t>-14.23%</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.27%</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -594,6 +636,14 @@
           <t>2.73%</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.35%</t>
+        </is>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -621,6 +671,14 @@
           <t>-5.01%</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.60%</t>
+        </is>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -648,6 +706,14 @@
           <t>10.50%</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.74%</t>
+        </is>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -675,6 +741,14 @@
           <t>-12.31%</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.33%</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -702,6 +776,14 @@
           <t>-37.92%</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.32%</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -729,6 +811,14 @@
           <t>17.21%</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.46%</t>
+        </is>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -756,6 +846,14 @@
           <t>-1.77%</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.11%</t>
+        </is>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -783,6 +881,14 @@
           <t>-14.69%</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.05%</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -810,6 +916,14 @@
           <t>-34.03%</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.67%</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -837,6 +951,14 @@
           <t>-0.44%</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.51%</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -864,6 +986,14 @@
           <t>8.08%</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.48%</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -891,6 +1021,14 @@
           <t>-27.38%</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.92%</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -918,6 +1056,14 @@
           <t>-20.02%</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.69%</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -945,6 +1091,14 @@
           <t>-37.11%</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10.93%</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -972,6 +1126,14 @@
           <t>-43.24%</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.28%</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -999,6 +1161,14 @@
           <t>-24.29%</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>11.26%</t>
+        </is>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1026,6 +1196,14 @@
           <t>-5.37%</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1053,6 +1231,14 @@
           <t>-3.08%</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>11.71%</t>
+        </is>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1080,6 +1266,14 @@
           <t>-8.61%</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.17%</t>
+        </is>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1107,6 +1301,14 @@
           <t>41.76%</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>20.65%</t>
+        </is>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1134,6 +1336,14 @@
           <t>9.89%</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.59%</t>
+        </is>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1161,6 +1371,14 @@
           <t>-2.31%</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1188,6 +1406,14 @@
           <t>-1.49%</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.32%</t>
+        </is>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1215,6 +1441,14 @@
           <t>-21.52%</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.52%</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1242,6 +1476,14 @@
           <t>-4.47%</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.18%</t>
+        </is>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1269,6 +1511,14 @@
           <t>-9.69%</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.06%</t>
+        </is>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1296,6 +1546,14 @@
           <t>3.73%</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.32%</t>
+        </is>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1323,6 +1581,14 @@
           <t>-49.99%</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>36.74%</t>
+        </is>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1350,6 +1616,14 @@
           <t>-10.25%</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.46%</t>
+        </is>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1377,6 +1651,14 @@
           <t>-10.59%</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.81%</t>
+        </is>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1404,6 +1686,14 @@
           <t>4.94%</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.97%</t>
+        </is>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1431,6 +1721,14 @@
           <t>-20.66%</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.20%</t>
+        </is>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1458,6 +1756,14 @@
           <t>-36.46%</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.29%</t>
+        </is>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1485,6 +1791,14 @@
           <t>1.29%</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.33%</t>
+        </is>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1512,6 +1826,14 @@
           <t>20.98%</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.12%</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1539,6 +1861,14 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>16.08%</t>
+        </is>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1566,6 +1896,14 @@
           <t>-11.44%</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.46%</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1593,6 +1931,14 @@
           <t>-8.71%</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.36%</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1620,6 +1966,14 @@
           <t>-6.36%</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.28%</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1647,6 +2001,14 @@
           <t>-16.62%</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.15%</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1674,6 +2036,14 @@
           <t>-21.79%</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.73%</t>
+        </is>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1701,6 +2071,14 @@
           <t>-26.67%</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.57%</t>
+        </is>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1728,6 +2106,14 @@
           <t>-3.02%</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.08%</t>
+        </is>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1755,6 +2141,14 @@
           <t>1.68%</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.06%</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1782,6 +2176,14 @@
           <t>0.44%</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1809,6 +2211,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1836,6 +2248,14 @@
           <t>-20.46%</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.27%</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1863,6 +2283,14 @@
           <t>-36.21%</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.07%</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1890,6 +2318,14 @@
           <t>-17.11%</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.35%</t>
+        </is>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1917,6 +2353,14 @@
           <t>-11.39%</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.83%</t>
+        </is>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1944,6 +2388,14 @@
           <t>-14.15%</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.99%</t>
+        </is>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1971,6 +2423,14 @@
           <t>2.87%</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.84%</t>
+        </is>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1998,6 +2458,14 @@
           <t>-5.31%</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2025,6 +2493,14 @@
           <t>0.00%</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.51%</t>
+        </is>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2052,6 +2528,14 @@
           <t>2.34%</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.56%</t>
+        </is>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2079,6 +2563,14 @@
           <t>-15.48%</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.64%</t>
+        </is>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2106,6 +2598,14 @@
           <t>-17.11%</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.30%</t>
+        </is>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2133,6 +2633,14 @@
           <t>-18.64%</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.36%</t>
+        </is>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2160,6 +2668,14 @@
           <t>-14.71%</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.03%</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2187,6 +2703,14 @@
           <t>7.50%</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.90%</t>
+        </is>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2214,6 +2738,14 @@
           <t>-8.07%</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.91%</t>
+        </is>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2241,6 +2773,14 @@
           <t>-25.01%</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>14.82%</t>
+        </is>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2268,6 +2808,14 @@
           <t>-8.80%</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>10.29%</t>
+        </is>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2295,6 +2843,14 @@
           <t>-16.30%</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2322,6 +2878,14 @@
           <t>-15.04%</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.47%</t>
+        </is>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2349,6 +2913,14 @@
           <t>90.53%</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.02%</t>
+        </is>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2376,6 +2948,14 @@
           <t>-12.69%</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2403,6 +2983,14 @@
           <t>3.33%</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.33%</t>
+        </is>
+      </c>
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2430,6 +3018,14 @@
           <t>-17.92%</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.37%</t>
+        </is>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2457,6 +3053,14 @@
           <t>-19.18%</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.60%</t>
+        </is>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2484,6 +3088,14 @@
           <t>16.25%</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>13.34%</t>
+        </is>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2511,6 +3123,14 @@
           <t>13.16%</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.79%</t>
+        </is>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2538,6 +3158,14 @@
           <t>-20.78%</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.15%</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2565,6 +3193,14 @@
           <t>-10.49%</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.74%</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2592,6 +3228,14 @@
           <t>-8.88%</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.53%</t>
+        </is>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2619,6 +3263,14 @@
           <t>-10.25%</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.51%</t>
+        </is>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2646,6 +3298,14 @@
           <t>-13.43%</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.12%</t>
+        </is>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2673,6 +3333,14 @@
           <t>-5.77%</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.13%</t>
+        </is>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2700,6 +3368,14 @@
           <t>-30.39%</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.98%</t>
+        </is>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2727,6 +3403,14 @@
           <t>4.25%</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.92%</t>
+        </is>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2754,6 +3438,14 @@
           <t>8.42%</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.42%</t>
+        </is>
+      </c>
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2781,6 +3473,14 @@
           <t>-11.09%</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.19%</t>
+        </is>
+      </c>
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2808,6 +3508,14 @@
           <t>-12.43%</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.89%</t>
+        </is>
+      </c>
+      <c r="G88" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2835,6 +3543,14 @@
           <t>-17.69%</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>12.38%</t>
+        </is>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2862,6 +3578,14 @@
           <t>-15.05%</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.61%</t>
+        </is>
+      </c>
+      <c r="G90" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2889,6 +3613,14 @@
           <t>-7.03%</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.10%</t>
+        </is>
+      </c>
+      <c r="G91" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2916,6 +3648,14 @@
           <t>-11.18%</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.98%</t>
+        </is>
+      </c>
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2943,6 +3683,14 @@
           <t>-2.28%</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2970,6 +3718,14 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.02%</t>
+        </is>
+      </c>
+      <c r="G94" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2997,6 +3753,14 @@
           <t>-17.76%</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.06%</t>
+        </is>
+      </c>
+      <c r="G95" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3024,6 +3788,14 @@
           <t>-29.43%</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>8.92%</t>
+        </is>
+      </c>
+      <c r="G96" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3051,6 +3823,14 @@
           <t>-16.75%</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.62%</t>
+        </is>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3078,6 +3858,14 @@
           <t>-11.89%</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.63%</t>
+        </is>
+      </c>
+      <c r="G98" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3105,6 +3893,14 @@
           <t>-11.16%</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3132,6 +3928,14 @@
           <t>-10.30%</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.35%</t>
+        </is>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3159,6 +3963,14 @@
           <t>-21.26%</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.86%</t>
+        </is>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3186,6 +3998,14 @@
           <t>-8.57%</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.25%</t>
+        </is>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3213,6 +4033,14 @@
           <t>-21.33%</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.27%</t>
+        </is>
+      </c>
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3240,6 +4068,14 @@
           <t>-2.77%</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7.76%</t>
+        </is>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3267,6 +4103,14 @@
           <t>12.16%</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.42%</t>
+        </is>
+      </c>
+      <c r="G105" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3294,6 +4138,14 @@
           <t>-29.91%</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.23%</t>
+        </is>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3321,6 +4173,14 @@
           <t>6.37%</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.70%</t>
+        </is>
+      </c>
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3348,6 +4208,14 @@
           <t>-14.84%</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.75%</t>
+        </is>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3375,6 +4243,14 @@
           <t>2.11%</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.15%</t>
+        </is>
+      </c>
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3402,6 +4278,14 @@
           <t>-10.31%</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.49%</t>
+        </is>
+      </c>
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3429,6 +4313,14 @@
           <t>-14.54%</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.58%</t>
+        </is>
+      </c>
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3456,6 +4348,14 @@
           <t>-10.39%</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.27%</t>
+        </is>
+      </c>
+      <c r="G112" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3483,6 +4383,14 @@
           <t>-2.64%</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.08%</t>
+        </is>
+      </c>
+      <c r="G113" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3510,6 +4418,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3537,6 +4455,14 @@
           <t>-7.02%</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.90%</t>
+        </is>
+      </c>
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3564,6 +4490,14 @@
           <t>-4.62%</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>13.03%</t>
+        </is>
+      </c>
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3591,6 +4525,14 @@
           <t>-11.45%</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.23%</t>
+        </is>
+      </c>
+      <c r="G117" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3618,6 +4560,14 @@
           <t>-31.12%</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.21%</t>
+        </is>
+      </c>
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3645,6 +4595,14 @@
           <t>-14.47%</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.88%</t>
+        </is>
+      </c>
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3672,6 +4630,14 @@
           <t>-7.16%</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.76%</t>
+        </is>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3699,6 +4665,14 @@
           <t>1.87%</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.67%</t>
+        </is>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3726,6 +4700,14 @@
           <t>10.72%</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.04%</t>
+        </is>
+      </c>
+      <c r="G122" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3753,6 +4735,14 @@
           <t>-26.44%</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>15.35%</t>
+        </is>
+      </c>
+      <c r="G123" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3780,6 +4770,14 @@
           <t>-14.46%</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.30%</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3807,6 +4805,14 @@
           <t>-13.73%</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.66%</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3834,6 +4840,14 @@
           <t>-14.63%</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.95%</t>
+        </is>
+      </c>
+      <c r="G126" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3861,6 +4875,14 @@
           <t>-11.96%</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.85%</t>
+        </is>
+      </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3888,6 +4910,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3915,6 +4947,14 @@
           <t>-13.51%</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.32%</t>
+        </is>
+      </c>
+      <c r="G129" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3942,6 +4982,14 @@
           <t>-19.71%</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.99%</t>
+        </is>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3969,6 +5017,14 @@
           <t>-31.40%</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>9.41%</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3996,6 +5052,14 @@
           <t>-17.58%</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.11%</t>
+        </is>
+      </c>
+      <c r="G132" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4023,6 +5087,14 @@
           <t>-6.33%</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.97%</t>
+        </is>
+      </c>
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4050,6 +5122,14 @@
           <t>-11.25%</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.85%</t>
+        </is>
+      </c>
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4077,6 +5157,14 @@
           <t>-8.75%</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.59%</t>
+        </is>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4104,6 +5192,14 @@
           <t>-30.59%</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>5.64%</t>
+        </is>
+      </c>
+      <c r="G136" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4131,6 +5227,14 @@
           <t>-29.12%</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.94%</t>
+        </is>
+      </c>
+      <c r="G137" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4158,6 +5262,14 @@
           <t>-8.91%</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.35%</t>
+        </is>
+      </c>
+      <c r="G138" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4185,6 +5297,14 @@
           <t>-16.81%</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.71%</t>
+        </is>
+      </c>
+      <c r="G139" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4212,6 +5332,14 @@
           <t>-28.84%</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>10.26%</t>
+        </is>
+      </c>
+      <c r="G140" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4239,6 +5367,14 @@
           <t>3.66%</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.83%</t>
+        </is>
+      </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4266,6 +5402,14 @@
           <t>-16.01%</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>6.34%</t>
+        </is>
+      </c>
+      <c r="G142" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4293,6 +5437,14 @@
           <t>-17.40%</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.18%</t>
+        </is>
+      </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4320,6 +5472,14 @@
           <t>-5.22%</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.76%</t>
+        </is>
+      </c>
+      <c r="G144" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4347,6 +5507,14 @@
           <t>11.05%</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0.93%</t>
+        </is>
+      </c>
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4374,6 +5542,14 @@
           <t>-24.09%</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.81%</t>
+        </is>
+      </c>
+      <c r="G146" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4401,6 +5577,14 @@
           <t>-11.62%</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.44%</t>
+        </is>
+      </c>
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4428,6 +5612,14 @@
           <t>5.02%</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.75%</t>
+        </is>
+      </c>
+      <c r="G148" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4455,6 +5647,14 @@
           <t>-25.18%</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.91%</t>
+        </is>
+      </c>
+      <c r="G149" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4482,6 +5682,14 @@
           <t>-4.38%</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="G150" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4509,6 +5717,14 @@
           <t>3.72%</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.28%</t>
+        </is>
+      </c>
+      <c r="G151" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4536,6 +5752,14 @@
           <t>-19.69%</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="G152" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4563,6 +5787,14 @@
           <t>-14.54%</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.48%</t>
+        </is>
+      </c>
+      <c r="G153" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4590,6 +5822,14 @@
           <t>-16.55%</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0.38%</t>
+        </is>
+      </c>
+      <c r="G154" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4617,6 +5857,14 @@
           <t>-0.26%</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>7.56%</t>
+        </is>
+      </c>
+      <c r="G155" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4644,6 +5892,14 @@
           <t>-1.88%</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.12%</t>
+        </is>
+      </c>
+      <c r="G156" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4671,6 +5927,14 @@
           <t>-14.82%</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>5.10%</t>
+        </is>
+      </c>
+      <c r="G157" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4698,6 +5962,14 @@
           <t>3.78%</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.26%</t>
+        </is>
+      </c>
+      <c r="G158" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4725,6 +5997,14 @@
           <t>7.24%</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0.84%</t>
+        </is>
+      </c>
+      <c r="G159" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4752,6 +6032,14 @@
           <t>-5.91%</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.22%</t>
+        </is>
+      </c>
+      <c r="G160" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4779,6 +6067,14 @@
           <t>0.96%</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0.55%</t>
+        </is>
+      </c>
+      <c r="G161" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4806,6 +6102,14 @@
           <t>-31.93%</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.18%</t>
+        </is>
+      </c>
+      <c r="G162" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4833,6 +6137,14 @@
           <t>-25.02%</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0.57%</t>
+        </is>
+      </c>
+      <c r="G163" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4860,6 +6172,14 @@
           <t>33.74%</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>5.62%</t>
+        </is>
+      </c>
+      <c r="G164" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4887,6 +6207,14 @@
           <t>-29.00%</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.56%</t>
+        </is>
+      </c>
+      <c r="G165" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4914,6 +6242,14 @@
           <t>-8.90%</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.74%</t>
+        </is>
+      </c>
+      <c r="G166" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4941,6 +6277,14 @@
           <t>-1.61%</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.09%</t>
+        </is>
+      </c>
+      <c r="G167" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4968,6 +6312,14 @@
           <t>-0.48%</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.83%</t>
+        </is>
+      </c>
+      <c r="G168" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4995,6 +6347,14 @@
           <t>0.36%</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0.36%</t>
+        </is>
+      </c>
+      <c r="G169" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5022,6 +6382,14 @@
           <t>-12.44%</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>0.71%</t>
+        </is>
+      </c>
+      <c r="G170" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5049,6 +6417,14 @@
           <t>-1.66%</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1.96%</t>
+        </is>
+      </c>
+      <c r="G171" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5076,6 +6452,14 @@
           <t>0.00%</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1.07%</t>
+        </is>
+      </c>
+      <c r="G172" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5103,6 +6487,14 @@
           <t>1.43%</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1.55%</t>
+        </is>
+      </c>
+      <c r="G173" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5130,6 +6522,14 @@
           <t>-0.81%</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>0.94%</t>
+        </is>
+      </c>
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5157,6 +6557,14 @@
           <t>-23.89%</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0.20%</t>
+        </is>
+      </c>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5184,6 +6592,14 @@
           <t>-15.40%</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.54%</t>
+        </is>
+      </c>
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5211,6 +6627,14 @@
           <t>-1.63%</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0.76%</t>
+        </is>
+      </c>
+      <c r="G177" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5238,6 +6662,14 @@
           <t>-4.65%</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0.62%</t>
+        </is>
+      </c>
+      <c r="G178" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5265,6 +6697,14 @@
           <t>-11.13%</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2.80%</t>
+        </is>
+      </c>
+      <c r="G179" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5292,6 +6732,14 @@
           <t>-9.31%</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.56%</t>
+        </is>
+      </c>
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5319,6 +6767,14 @@
           <t>2.95%</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>0.21%</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5346,6 +6802,14 @@
           <t>-20.27%</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1.35%</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5373,6 +6837,14 @@
           <t>-11.34%</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>0.50%</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5400,6 +6872,14 @@
           <t>-3.62%</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>4.07%</t>
+        </is>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5427,6 +6907,14 @@
           <t>-4.86%</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0.97%</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -5454,6 +6942,14 @@
           <t>1.84%</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1.37%</t>
+        </is>
+      </c>
+      <c r="G186" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5481,6 +6977,14 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2.62%</t>
+        </is>
+      </c>
+      <c r="G187" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5508,6 +7012,14 @@
           <t>4.77%</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>3.47%</t>
+        </is>
+      </c>
+      <c r="G188" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5535,6 +7047,14 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2.75%</t>
+        </is>
+      </c>
+      <c r="G189" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5562,6 +7082,14 @@
           <t>-12.98%</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>0.06%</t>
+        </is>
+      </c>
+      <c r="G190" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5589,6 +7117,14 @@
           <t>-7.48%</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2.21%</t>
+        </is>
+      </c>
+      <c r="G191" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5616,6 +7152,14 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1.43%</t>
+        </is>
+      </c>
+      <c r="G192" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5643,6 +7187,14 @@
           <t>-9.86%</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>0.60%</t>
+        </is>
+      </c>
+      <c r="G193" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5670,6 +7222,14 @@
           <t>-7.50%</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2.16%</t>
+        </is>
+      </c>
+      <c r="G194" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5697,6 +7257,14 @@
           <t>-23.17%</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>0.30%</t>
+        </is>
+      </c>
+      <c r="G195" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5724,6 +7292,14 @@
           <t>23.29%</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>5.35%</t>
+        </is>
+      </c>
+      <c r="G196" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5751,6 +7327,14 @@
           <t>3.54%</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>0.79%</t>
+        </is>
+      </c>
+      <c r="G197" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5778,6 +7362,14 @@
           <t>-11.18%</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>0.58%</t>
+        </is>
+      </c>
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5805,6 +7397,14 @@
           <t>-1.79%</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>0.29%</t>
+        </is>
+      </c>
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -5832,6 +7432,14 @@
           <t>-20.51%</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>1.21%</t>
+        </is>
+      </c>
+      <c r="G200" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5859,6 +7467,14 @@
           <t>-32.86%</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>15.25%</t>
+        </is>
+      </c>
+      <c r="G201" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -5886,6 +7502,14 @@
           <t>-11.74%</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>1.79%</t>
+        </is>
+      </c>
+      <c r="G202" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -5913,6 +7537,14 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>421.07%</t>
+        </is>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -5940,6 +7572,14 @@
           <t>3.17%</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>1.70%</t>
+        </is>
+      </c>
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -5967,6 +7607,14 @@
           <t>0.78%</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>0.82%</t>
+        </is>
+      </c>
+      <c r="G205" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -5994,6 +7642,14 @@
           <t>3.91%</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -6021,6 +7677,14 @@
           <t>-11.68%</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>1.83%</t>
+        </is>
+      </c>
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6048,6 +7712,14 @@
           <t>-16.70%</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>3.30%</t>
+        </is>
+      </c>
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6075,6 +7747,14 @@
           <t>-17.39%</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2.89%</t>
+        </is>
+      </c>
+      <c r="G209" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6102,6 +7782,14 @@
           <t>-8.50%</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>5.22%</t>
+        </is>
+      </c>
+      <c r="G210" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6129,6 +7817,14 @@
           <t>-21.07%</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>0.63%</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -6156,6 +7852,14 @@
           <t>2.12%</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>5.37%</t>
+        </is>
+      </c>
+      <c r="G212" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -6183,6 +7887,14 @@
           <t>-17.11%</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>0.23%</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -6210,6 +7922,14 @@
           <t>-20.22%</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>0.89%</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6237,6 +7957,14 @@
           <t>-21.98%</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>1.93%</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -6264,6 +7992,14 @@
           <t>8.04%</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>3.67%</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -6291,6 +8027,14 @@
           <t>-9.85%</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>3.02%</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -6318,6 +8062,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -6345,6 +8099,14 @@
           <t>6.99%</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>3.74%</t>
+        </is>
+      </c>
+      <c r="G219" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -6372,6 +8134,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -6399,6 +8171,14 @@
           <t>103.82%</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>14.36%</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -6426,6 +8206,14 @@
           <t>-11.64%</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2.53%</t>
+        </is>
+      </c>
+      <c r="G222" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -6453,6 +8241,14 @@
           <t>6.04%</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>1.20%</t>
+        </is>
+      </c>
+      <c r="G223" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -6480,6 +8276,14 @@
           <t>-8.24%</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>0.10%</t>
+        </is>
+      </c>
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -6507,6 +8311,14 @@
           <t>-0.50%</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>0.25%</t>
+        </is>
+      </c>
+      <c r="G225" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -6534,6 +8346,14 @@
           <t>-37.70%</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>6.31%</t>
+        </is>
+      </c>
+      <c r="G226" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -6561,6 +8381,14 @@
           <t>-48.77%</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>32.73%</t>
+        </is>
+      </c>
+      <c r="G227" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -6588,6 +8416,14 @@
           <t>-13.40%</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>3.05%</t>
+        </is>
+      </c>
+      <c r="G228" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6615,6 +8451,14 @@
           <t>4.97%</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>0.23%</t>
+        </is>
+      </c>
+      <c r="G229" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -6642,6 +8486,14 @@
           <t>-23.78%</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>1.10%</t>
+        </is>
+      </c>
+      <c r="G230" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -6669,6 +8521,14 @@
           <t>12.54%</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>3.50%</t>
+        </is>
+      </c>
+      <c r="G231" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -6696,6 +8556,14 @@
           <t>-12.68%</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>0.84%</t>
+        </is>
+      </c>
+      <c r="G232" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -6723,6 +8591,14 @@
           <t>-12.63%</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>4.04%</t>
+        </is>
+      </c>
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6750,6 +8626,14 @@
           <t>-15.12%</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
+      <c r="G234" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -6777,6 +8661,14 @@
           <t>-5.11%</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>1.64%</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -6804,6 +8696,14 @@
           <t>9.50%</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>0.11%</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -6831,6 +8731,14 @@
           <t>-4.93%</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>2.60%</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -6858,6 +8766,14 @@
           <t>-11.54%</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>0.92%</t>
+        </is>
+      </c>
+      <c r="G238" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -6885,6 +8801,14 @@
           <t>-16.32%</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="G239" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -6912,6 +8836,14 @@
           <t>-1.59%</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>1.97%</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -6939,6 +8871,14 @@
           <t>-13.86%</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>0.79%</t>
+        </is>
+      </c>
+      <c r="G241" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -6966,6 +8906,14 @@
           <t>-4.65%</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>1.20%</t>
+        </is>
+      </c>
+      <c r="G242" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -6993,6 +8941,14 @@
           <t>5.27%</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+      <c r="G243" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -7020,6 +8976,14 @@
           <t>-4.83%</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>6.43%</t>
+        </is>
+      </c>
+      <c r="G244" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -7047,6 +9011,14 @@
           <t>-3.56%</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>1.08%</t>
+        </is>
+      </c>
+      <c r="G245" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -7074,6 +9046,14 @@
           <t>-2.89%</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>8.65%</t>
+        </is>
+      </c>
+      <c r="G246" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -7101,6 +9081,14 @@
           <t>-10.81%</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+      <c r="G247" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -7128,6 +9116,14 @@
           <t>0.46%</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>3.68%</t>
+        </is>
+      </c>
+      <c r="G248" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -7155,6 +9151,14 @@
           <t>5.13%</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>0.72%</t>
+        </is>
+      </c>
+      <c r="G249" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -7182,6 +9186,14 @@
           <t>-23.44%</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="G250" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -7209,6 +9221,14 @@
           <t>4.36%</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>2.11%</t>
+        </is>
+      </c>
+      <c r="G251" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -7236,6 +9256,14 @@
           <t>-28.36%</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>7.07%</t>
+        </is>
+      </c>
+      <c r="G252" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -7263,6 +9291,14 @@
           <t>-23.05%</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>1.61%</t>
+        </is>
+      </c>
+      <c r="G253" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -7290,6 +9326,14 @@
           <t>-0.53%</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>0.51%</t>
+        </is>
+      </c>
+      <c r="G254" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -7317,6 +9361,14 @@
           <t>-8.65%</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>0.37%</t>
+        </is>
+      </c>
+      <c r="G255" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -7344,6 +9396,14 @@
           <t>-13.16%</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G256" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -7371,6 +9431,14 @@
           <t>8.27%</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>11.60%</t>
+        </is>
+      </c>
+      <c r="G257" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -7398,6 +9466,14 @@
           <t>-25.19%</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>4.59%</t>
+        </is>
+      </c>
+      <c r="G258" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -7425,6 +9501,14 @@
           <t>9.77%</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>3.17%</t>
+        </is>
+      </c>
+      <c r="G259" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -7452,6 +9536,14 @@
           <t>-12.41%</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>3.84%</t>
+        </is>
+      </c>
+      <c r="G260" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -7479,6 +9571,14 @@
           <t>-18.53%</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>0.57%</t>
+        </is>
+      </c>
+      <c r="G261" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -7506,6 +9606,14 @@
           <t>2.58%</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>0.98%</t>
+        </is>
+      </c>
+      <c r="G262" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -7533,6 +9641,14 @@
           <t>4.41%</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>0.29%</t>
+        </is>
+      </c>
+      <c r="G263" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -7560,6 +9676,14 @@
           <t>-36.83%</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>9.62%</t>
+        </is>
+      </c>
+      <c r="G264" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -7587,6 +9711,14 @@
           <t>-38.09%</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>8.38%</t>
+        </is>
+      </c>
+      <c r="G265" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -7614,6 +9746,14 @@
           <t>-13.28%</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>1.97%</t>
+        </is>
+      </c>
+      <c r="G266" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -7641,6 +9781,14 @@
           <t>-11.61%</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>2.02%</t>
+        </is>
+      </c>
+      <c r="G267" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -7668,6 +9816,14 @@
           <t>-8.94%</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>0.55%</t>
+        </is>
+      </c>
+      <c r="G268" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -7695,6 +9851,14 @@
           <t>-11.72%</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>8.72%</t>
+        </is>
+      </c>
+      <c r="G269" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -7722,6 +9886,14 @@
           <t>-39.94%</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>0.33%</t>
+        </is>
+      </c>
+      <c r="G270" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -7749,6 +9921,14 @@
           <t>3.72%</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>0.41%</t>
+        </is>
+      </c>
+      <c r="G271" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -7776,6 +9956,14 @@
           <t>-14.56%</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>1.52%</t>
+        </is>
+      </c>
+      <c r="G272" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -7803,6 +9991,14 @@
           <t>-31.85%</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>3.07%</t>
+        </is>
+      </c>
+      <c r="G273" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -7830,6 +10026,14 @@
           <t>-13.03%</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>4.17%</t>
+        </is>
+      </c>
+      <c r="G274" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -7857,6 +10061,14 @@
           <t>-19.50%</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>0.83%</t>
+        </is>
+      </c>
+      <c r="G275" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -7884,6 +10096,14 @@
           <t>-4.78%</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>4.21%</t>
+        </is>
+      </c>
+      <c r="G276" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -7911,6 +10131,14 @@
           <t>-23.55%</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>4.20%</t>
+        </is>
+      </c>
+      <c r="G277" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -7938,6 +10166,14 @@
           <t>-8.54%</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>0.88%</t>
+        </is>
+      </c>
+      <c r="G278" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -7965,6 +10201,14 @@
           <t>-32.99%</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>0.78%</t>
+        </is>
+      </c>
+      <c r="G279" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -7992,6 +10236,14 @@
           <t>-13.93%</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>0.46%</t>
+        </is>
+      </c>
+      <c r="G280" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -8019,6 +10271,14 @@
           <t>-20.01%</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>4.98%</t>
+        </is>
+      </c>
+      <c r="G281" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -8046,6 +10306,14 @@
           <t>1.55%</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>5.63%</t>
+        </is>
+      </c>
+      <c r="G282" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -8073,6 +10341,14 @@
           <t>-19.86%</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>4.36%</t>
+        </is>
+      </c>
+      <c r="G283" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -8100,6 +10376,14 @@
           <t>-13.18%</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>3.81%</t>
+        </is>
+      </c>
+      <c r="G284" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -8127,6 +10411,14 @@
           <t>-17.70%</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
+      <c r="G285" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -8154,6 +10446,14 @@
           <t>-12.01%</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>0.19%</t>
+        </is>
+      </c>
+      <c r="G286" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -8181,6 +10481,14 @@
           <t>-7.86%</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>1.05%</t>
+        </is>
+      </c>
+      <c r="G287" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -8208,6 +10516,14 @@
           <t>-10.42%</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>3.10%</t>
+        </is>
+      </c>
+      <c r="G288" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -8235,6 +10551,14 @@
           <t>-11.11%</t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>2.73%</t>
+        </is>
+      </c>
+      <c r="G289" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -8262,6 +10586,14 @@
           <t>-11.66%</t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>1.83%</t>
+        </is>
+      </c>
+      <c r="G290" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -8289,6 +10621,14 @@
           <t>-14.88%</t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>0.57%</t>
+        </is>
+      </c>
+      <c r="G291" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -8316,6 +10656,14 @@
           <t>-44.74%</t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>36.94%</t>
+        </is>
+      </c>
+      <c r="G292" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -8343,6 +10691,14 @@
           <t>-17.22%</t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
+      </c>
+      <c r="G293" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -8370,6 +10726,14 @@
           <t>-23.21%</t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>9.32%</t>
+        </is>
+      </c>
+      <c r="G294" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -8397,6 +10761,14 @@
           <t>-19.67%</t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>6.53%</t>
+        </is>
+      </c>
+      <c r="G295" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -8424,6 +10796,14 @@
           <t>-21.02%</t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>1.21%</t>
+        </is>
+      </c>
+      <c r="G296" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -8451,6 +10831,14 @@
           <t>-42.02%</t>
         </is>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>3.66%</t>
+        </is>
+      </c>
+      <c r="G297" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -8478,6 +10866,14 @@
           <t>-20.27%</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>19.06%</t>
+        </is>
+      </c>
+      <c r="G298" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -8505,6 +10901,14 @@
           <t>-18.73%</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>0.07%</t>
+        </is>
+      </c>
+      <c r="G299" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -8532,6 +10936,14 @@
           <t>21.11%</t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>2.52%</t>
+        </is>
+      </c>
+      <c r="G300" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -8559,6 +10971,14 @@
           <t>-20.99%</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>0.53%</t>
+        </is>
+      </c>
+      <c r="G301" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -8586,6 +11006,14 @@
           <t>-8.61%</t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>3.14%</t>
+        </is>
+      </c>
+      <c r="G302" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -8613,6 +11041,14 @@
           <t>-1.06%</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>0.40%</t>
+        </is>
+      </c>
+      <c r="G303" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -8640,6 +11076,14 @@
           <t>-22.48%</t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>1.80%</t>
+        </is>
+      </c>
+      <c r="G304" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -8667,6 +11111,14 @@
           <t>51.17%</t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>20.73%</t>
+        </is>
+      </c>
+      <c r="G305" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -8694,6 +11146,14 @@
           <t>-8.44%</t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>0.16%</t>
+        </is>
+      </c>
+      <c r="G306" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -8721,6 +11181,14 @@
           <t>-36.01%</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>13.30%</t>
+        </is>
+      </c>
+      <c r="G307" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -8748,6 +11216,14 @@
           <t>-23.83%</t>
         </is>
       </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>4.82%</t>
+        </is>
+      </c>
+      <c r="G308" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -8775,6 +11251,14 @@
           <t>2.91%</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>1.28%</t>
+        </is>
+      </c>
+      <c r="G309" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -8802,6 +11286,14 @@
           <t>-14.59%</t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>1.79%</t>
+        </is>
+      </c>
+      <c r="G310" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -8829,6 +11321,14 @@
           <t>-20.20%</t>
         </is>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>4.91%</t>
+        </is>
+      </c>
+      <c r="G311" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -8856,6 +11356,14 @@
           <t>-36.62%</t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>17.22%</t>
+        </is>
+      </c>
+      <c r="G312" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -8883,6 +11391,14 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>3.18%</t>
+        </is>
+      </c>
+      <c r="G313" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -8910,6 +11426,14 @@
           <t>7.03%</t>
         </is>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>0.83%</t>
+        </is>
+      </c>
+      <c r="G314" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -8937,6 +11461,14 @@
           <t>0.68%</t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>3.38%</t>
+        </is>
+      </c>
+      <c r="G315" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -8964,6 +11496,14 @@
           <t>1.06%</t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>0.64%</t>
+        </is>
+      </c>
+      <c r="G316" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -8991,6 +11531,14 @@
           <t>1.36%</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>0.04%</t>
+        </is>
+      </c>
+      <c r="G317" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -9018,6 +11566,14 @@
           <t>9.76%</t>
         </is>
       </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>0.10%</t>
+        </is>
+      </c>
+      <c r="G318" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -9045,6 +11601,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -9072,6 +11638,14 @@
           <t>7.78%</t>
         </is>
       </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>1.18%</t>
+        </is>
+      </c>
+      <c r="G320" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -9099,6 +11673,14 @@
           <t>5.57%</t>
         </is>
       </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>2.24%</t>
+        </is>
+      </c>
+      <c r="G321" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -9126,6 +11708,14 @@
           <t>4.64%</t>
         </is>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>1.49%</t>
+        </is>
+      </c>
+      <c r="G322" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -9153,6 +11743,14 @@
           <t>0.97%</t>
         </is>
       </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>0.41%</t>
+        </is>
+      </c>
+      <c r="G323" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -9180,6 +11778,14 @@
           <t>5.49%</t>
         </is>
       </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>3.12%</t>
+        </is>
+      </c>
+      <c r="G324" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -9207,6 +11813,14 @@
           <t>8.37%</t>
         </is>
       </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>6.06%</t>
+        </is>
+      </c>
+      <c r="G325" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -9234,6 +11848,14 @@
           <t>0.00%</t>
         </is>
       </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>5.04%</t>
+        </is>
+      </c>
+      <c r="G326" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -9261,6 +11883,14 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>1.01%</t>
+        </is>
+      </c>
+      <c r="G327" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -9288,6 +11918,14 @@
           <t>5.61%</t>
         </is>
       </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>0.91%</t>
+        </is>
+      </c>
+      <c r="G328" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -9315,6 +11953,14 @@
           <t>1.42%</t>
         </is>
       </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>4.10%</t>
+        </is>
+      </c>
+      <c r="G329" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -9342,6 +11988,14 @@
           <t>-1.26%</t>
         </is>
       </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>0.53%</t>
+        </is>
+      </c>
+      <c r="G330" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -9369,6 +12023,14 @@
           <t>1.88%</t>
         </is>
       </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>1.89%</t>
+        </is>
+      </c>
+      <c r="G331" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -9396,6 +12058,14 @@
           <t>7.13%</t>
         </is>
       </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>0.41%</t>
+        </is>
+      </c>
+      <c r="G332" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -9423,6 +12093,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -9450,6 +12130,14 @@
           <t>3.26%</t>
         </is>
       </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>0.28%</t>
+        </is>
+      </c>
+      <c r="G334" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -9477,6 +12165,14 @@
           <t>-0.76%</t>
         </is>
       </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>1.86%</t>
+        </is>
+      </c>
+      <c r="G335" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -9504,6 +12200,14 @@
           <t>-0.53%</t>
         </is>
       </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>1.46%</t>
+        </is>
+      </c>
+      <c r="G336" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -9531,6 +12235,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -9558,6 +12272,14 @@
           <t>3.88%</t>
         </is>
       </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>1.10%</t>
+        </is>
+      </c>
+      <c r="G338" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -9585,6 +12307,14 @@
           <t>2.50%</t>
         </is>
       </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>2.88%</t>
+        </is>
+      </c>
+      <c r="G339" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -9612,6 +12342,14 @@
           <t>3.98%</t>
         </is>
       </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>2.57%</t>
+        </is>
+      </c>
+      <c r="G340" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -9639,6 +12377,14 @@
           <t>5.15%</t>
         </is>
       </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>0.64%</t>
+        </is>
+      </c>
+      <c r="G341" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -9666,6 +12412,14 @@
           <t>2.53%</t>
         </is>
       </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>2.64%</t>
+        </is>
+      </c>
+      <c r="G342" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -9693,6 +12447,14 @@
           <t>4.19%</t>
         </is>
       </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>4.76%</t>
+        </is>
+      </c>
+      <c r="G343" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -9720,6 +12482,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -9747,6 +12519,14 @@
           <t>4.06%</t>
         </is>
       </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
+      <c r="G345" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -9774,6 +12554,14 @@
           <t>9.23%</t>
         </is>
       </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>0.10%</t>
+        </is>
+      </c>
+      <c r="G346" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -9801,6 +12589,14 @@
           <t>-12.51%</t>
         </is>
       </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>1.99%</t>
+        </is>
+      </c>
+      <c r="G347" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -9828,6 +12624,14 @@
           <t>0.26%</t>
         </is>
       </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>1.71%</t>
+        </is>
+      </c>
+      <c r="G348" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -9855,6 +12659,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -9882,6 +12696,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -9909,6 +12733,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -9936,6 +12770,14 @@
           <t>1.39%</t>
         </is>
       </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>5.08%</t>
+        </is>
+      </c>
+      <c r="G352" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -9963,6 +12805,14 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>2.06%</t>
+        </is>
+      </c>
+      <c r="G353" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -9990,6 +12840,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -10017,6 +12877,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -10044,6 +12914,14 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>0.55%</t>
+        </is>
+      </c>
+      <c r="G356" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -10071,6 +12949,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -10098,6 +12986,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -10125,6 +13023,14 @@
           <t>2.82%</t>
         </is>
       </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>0.13%</t>
+        </is>
+      </c>
+      <c r="G359" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -10152,6 +13058,14 @@
           <t>3.01%</t>
         </is>
       </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>3.67%</t>
+        </is>
+      </c>
+      <c r="G360" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -10179,6 +13093,14 @@
           <t>5.94%</t>
         </is>
       </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>4.61%</t>
+        </is>
+      </c>
+      <c r="G361" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -10206,6 +13128,14 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>5.17%</t>
+        </is>
+      </c>
+      <c r="G362" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -10233,6 +13163,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -10260,6 +13200,14 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>0.36%</t>
+        </is>
+      </c>
+      <c r="G364" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -10287,6 +13235,14 @@
           <t>2.73%</t>
         </is>
       </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>0.80%</t>
+        </is>
+      </c>
+      <c r="G365" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -10314,6 +13270,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -10341,6 +13307,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -10368,6 +13344,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -10395,6 +13381,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -10422,6 +13418,14 @@
           <t>6.21%</t>
         </is>
       </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>4.83%</t>
+        </is>
+      </c>
+      <c r="G370" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -10449,6 +13453,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -10476,6 +13490,14 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>1.28%</t>
+        </is>
+      </c>
+      <c r="G372" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -10503,6 +13525,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -10530,6 +13562,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -10557,6 +13599,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -10584,6 +13636,14 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>2.51%</t>
+        </is>
+      </c>
+      <c r="G376" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -10611,6 +13671,14 @@
           <t>18.60%</t>
         </is>
       </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>2.91%</t>
+        </is>
+      </c>
+      <c r="G377" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -10638,6 +13706,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -10665,6 +13743,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -10692,6 +13780,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -10719,6 +13817,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -10746,6 +13854,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -10773,6 +13891,14 @@
           <t>16.10%</t>
         </is>
       </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>7.47%</t>
+        </is>
+      </c>
+      <c r="G383" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -10800,6 +13926,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -10827,6 +13963,14 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>1.08%</t>
+        </is>
+      </c>
+      <c r="G385" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -10854,6 +13998,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -10881,6 +14035,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -10908,6 +14072,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -10935,6 +14109,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -10962,6 +14146,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -10989,6 +14183,14 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>1.26%</t>
+        </is>
+      </c>
+      <c r="G391" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -11016,6 +14218,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -11043,6 +14255,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -11070,6 +14292,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -11097,6 +14329,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -11124,6 +14366,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -11151,6 +14403,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -11178,6 +14440,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -11205,6 +14477,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -11232,6 +14514,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -11259,6 +14551,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -11286,6 +14588,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -11313,6 +14625,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -11340,6 +14662,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -11367,6 +14699,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -11394,6 +14736,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -11421,6 +14773,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -11448,6 +14810,14 @@
           <t>1.21%</t>
         </is>
       </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
+      <c r="G408" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -11475,6 +14845,14 @@
           <t>1.31%</t>
         </is>
       </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>0.28%</t>
+        </is>
+      </c>
+      <c r="G409" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -11502,6 +14880,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -11529,6 +14917,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -11556,6 +14954,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -11583,6 +14991,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -11610,6 +15028,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -11637,6 +15065,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -11664,6 +15102,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -11691,6 +15139,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -11718,6 +15176,14 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>5.10%</t>
+        </is>
+      </c>
+      <c r="G418" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -11745,6 +15211,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -11772,6 +15248,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -11799,6 +15285,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -11826,6 +15322,14 @@
           <t>21.99%</t>
         </is>
       </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>0.29%</t>
+        </is>
+      </c>
+      <c r="G422" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -11853,6 +15357,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -11880,6 +15394,14 @@
           <t>3.02%</t>
         </is>
       </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>0.53%</t>
+        </is>
+      </c>
+      <c r="G424" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -11907,6 +15429,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -11934,6 +15466,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -11961,6 +15503,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -11988,6 +15540,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -12015,6 +15577,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -12042,6 +15614,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -12069,6 +15651,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -12096,6 +15688,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -12123,6 +15725,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -12150,6 +15762,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -12177,6 +15799,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -12204,6 +15836,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -12231,6 +15873,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -12258,6 +15910,14 @@
           <t>27.75%</t>
         </is>
       </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>0.15%</t>
+        </is>
+      </c>
+      <c r="G438" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -12285,6 +15945,14 @@
           <t>39.26%</t>
         </is>
       </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>0.59%</t>
+        </is>
+      </c>
+      <c r="G439" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -12312,6 +15980,14 @@
           <t>15.00%</t>
         </is>
       </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>9.03%</t>
+        </is>
+      </c>
+      <c r="G440" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -12339,6 +16015,14 @@
           <t>20.22%</t>
         </is>
       </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>0.89%</t>
+        </is>
+      </c>
+      <c r="G441" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -12366,6 +16050,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -12393,6 +16087,14 @@
           <t>43.44%</t>
         </is>
       </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>2.46%</t>
+        </is>
+      </c>
+      <c r="G443" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -12420,6 +16122,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -12447,6 +16159,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -12474,6 +16196,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -12501,6 +16233,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -12528,6 +16270,14 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>2.90%</t>
+        </is>
+      </c>
+      <c r="G448" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -12555,6 +16305,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -12582,6 +16342,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -12609,6 +16379,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -12636,6 +16416,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -12663,6 +16453,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -12690,6 +16490,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -12717,6 +16527,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -12744,6 +16564,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -12771,6 +16601,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -12798,6 +16638,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -12825,6 +16675,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -12848,6 +16708,16 @@
         </is>
       </c>
       <c r="E460" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
